--- a/database/industries/biscuit/ghesalem/product/quarterly_seprated.xlsx
+++ b/database/industries/biscuit/ghesalem/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghesalem\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\biscuit\ghesalem\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198BF1FA-B4CC-491C-8123-6A2CC9CE2248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06A308-F73F-469E-A961-AC3128D39D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -676,12 +676,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,7 +696,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -872,37 +872,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2747</v>
+        <v>2740</v>
       </c>
       <c r="F11" s="11">
-        <v>2740</v>
+        <v>2810</v>
       </c>
       <c r="G11" s="11">
-        <v>2810</v>
+        <v>2433</v>
       </c>
       <c r="H11" s="11">
-        <v>2433</v>
+        <v>2885</v>
       </c>
       <c r="I11" s="11">
-        <v>2885</v>
-      </c>
-      <c r="J11" s="11">
         <v>3063</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2599</v>
       </c>
       <c r="L11" s="11">
-        <v>2599</v>
+        <v>3279</v>
       </c>
       <c r="M11" s="11">
-        <v>3279</v>
+        <v>3233</v>
       </c>
       <c r="N11" s="11">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -911,17 +911,17 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2122</v>
+        <v>1773</v>
       </c>
       <c r="F12" s="13">
-        <v>1773</v>
+        <v>2994</v>
       </c>
       <c r="G12" s="13">
-        <v>2994</v>
-      </c>
-      <c r="H12" s="13">
         <v>1919</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -950,37 +950,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="11">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="G13" s="11">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="H13" s="11">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="I13" s="11">
-        <v>202</v>
-      </c>
-      <c r="J13" s="11">
         <v>182</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>296</v>
       </c>
       <c r="L13" s="11">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="M13" s="11">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="N13" s="11">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -989,37 +989,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>5746</v>
+        <v>3754</v>
       </c>
       <c r="F14" s="13">
-        <v>3754</v>
+        <v>4867</v>
       </c>
       <c r="G14" s="13">
-        <v>4867</v>
+        <v>4214</v>
       </c>
       <c r="H14" s="13">
-        <v>4214</v>
+        <v>5071</v>
       </c>
       <c r="I14" s="13">
-        <v>5071</v>
-      </c>
-      <c r="J14" s="13">
         <v>4982</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>3892</v>
       </c>
       <c r="L14" s="13">
-        <v>3892</v>
+        <v>4661</v>
       </c>
       <c r="M14" s="13">
-        <v>4661</v>
+        <v>4939</v>
       </c>
       <c r="N14" s="13">
-        <v>4939</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1036,29 +1036,29 @@
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
+      <c r="H15" s="11">
+        <v>474</v>
       </c>
       <c r="I15" s="11">
-        <v>474</v>
-      </c>
-      <c r="J15" s="11">
         <v>750</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>365</v>
       </c>
       <c r="L15" s="11">
-        <v>365</v>
+        <v>516</v>
       </c>
       <c r="M15" s="11">
-        <v>516</v>
+        <v>568</v>
       </c>
       <c r="N15" s="11">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1067,37 +1067,37 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" s="13">
+        <v>13</v>
+      </c>
+      <c r="H16" s="13">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13">
+        <v>26</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13">
         <v>16</v>
       </c>
-      <c r="H16" s="13">
-        <v>13</v>
-      </c>
-      <c r="I16" s="13">
-        <v>15</v>
-      </c>
-      <c r="J16" s="13">
-        <v>26</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
-      </c>
       <c r="L16" s="13">
+        <v>17</v>
+      </c>
+      <c r="M16" s="13">
+        <v>20</v>
+      </c>
+      <c r="N16" s="13">
         <v>16</v>
       </c>
-      <c r="M16" s="13">
-        <v>17</v>
-      </c>
-      <c r="N16" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1114,29 +1114,29 @@
       <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>18</v>
+      <c r="H17" s="11">
+        <v>1556</v>
       </c>
       <c r="I17" s="11">
-        <v>1556</v>
-      </c>
-      <c r="J17" s="11">
         <v>2018</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1219</v>
       </c>
       <c r="L17" s="11">
-        <v>1219</v>
+        <v>1618</v>
       </c>
       <c r="M17" s="11">
-        <v>1618</v>
+        <v>1668</v>
       </c>
       <c r="N17" s="11">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1153,29 +1153,29 @@
       <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
+      <c r="H18" s="13">
+        <v>1</v>
       </c>
       <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
         <v>52</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13">
+        <v>95</v>
       </c>
       <c r="L18" s="13">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M18" s="13">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="N18" s="13">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1192,66 +1192,66 @@
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>18</v>
+      <c r="H19" s="11">
+        <v>340</v>
       </c>
       <c r="I19" s="11">
-        <v>340</v>
-      </c>
-      <c r="J19" s="11">
         <v>302</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11">
+        <v>327</v>
       </c>
       <c r="L19" s="11">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="M19" s="11">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="N19" s="11">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>10636</v>
+        <v>8287</v>
       </c>
       <c r="F20" s="15">
-        <v>8287</v>
+        <v>11007</v>
       </c>
       <c r="G20" s="15">
-        <v>11007</v>
+        <v>8832</v>
       </c>
       <c r="H20" s="15">
-        <v>8832</v>
+        <v>10544</v>
       </c>
       <c r="I20" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="J20" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>8809</v>
       </c>
       <c r="L20" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="M20" s="15">
-        <v>10837</v>
+        <v>11414</v>
       </c>
       <c r="N20" s="15">
-        <v>11414</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="16" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="F25" s="15">
         <v>0</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>18</v>
@@ -1398,7 +1398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>34</v>
       </c>
@@ -1410,20 +1410,20 @@
       <c r="F26" s="19">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="19">
-        <v>0</v>
+      <c r="G26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>18</v>
+      <c r="K26" s="19">
+        <v>0</v>
       </c>
       <c r="L26" s="19">
         <v>0</v>
@@ -1435,44 +1435,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>10636</v>
+        <v>8287</v>
       </c>
       <c r="F27" s="15">
-        <v>8287</v>
+        <v>11007</v>
       </c>
       <c r="G27" s="15">
-        <v>11007</v>
+        <v>8832</v>
       </c>
       <c r="H27" s="15">
-        <v>8832</v>
+        <v>10544</v>
       </c>
       <c r="I27" s="15">
-        <v>10544</v>
+        <v>11375</v>
       </c>
       <c r="J27" s="15">
-        <v>11375</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>8809</v>
       </c>
       <c r="L27" s="15">
-        <v>8809</v>
+        <v>10837</v>
       </c>
       <c r="M27" s="15">
-        <v>10837</v>
+        <v>11414</v>
       </c>
       <c r="N27" s="15">
-        <v>11414</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1487,7 +1487,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1502,7 +1502,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1517,7 +1517,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1569,7 +1569,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1595,37 +1595,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>447777</v>
+        <v>557307</v>
       </c>
       <c r="F34" s="11">
-        <v>557307</v>
+        <v>586362</v>
       </c>
       <c r="G34" s="11">
-        <v>586362</v>
+        <v>597407</v>
       </c>
       <c r="H34" s="11">
-        <v>597407</v>
+        <v>750421</v>
       </c>
       <c r="I34" s="11">
-        <v>750421</v>
-      </c>
-      <c r="J34" s="11">
         <v>890434</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>18</v>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1173609</v>
       </c>
       <c r="L34" s="11">
-        <v>1173609</v>
+        <v>1742616</v>
       </c>
       <c r="M34" s="11">
-        <v>1742616</v>
+        <v>1828217</v>
       </c>
       <c r="N34" s="11">
-        <v>1828217</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1866027</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1634,17 +1634,17 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>277694</v>
+        <v>266678</v>
       </c>
       <c r="F35" s="13">
-        <v>266678</v>
+        <v>488854</v>
       </c>
       <c r="G35" s="13">
-        <v>488854</v>
-      </c>
-      <c r="H35" s="13">
         <v>329882</v>
       </c>
+      <c r="H35" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1673,37 +1673,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="F36" s="11">
-        <v>139</v>
+        <v>59040</v>
       </c>
       <c r="G36" s="11">
-        <v>59040</v>
+        <v>55905</v>
       </c>
       <c r="H36" s="11">
-        <v>55905</v>
+        <v>48030</v>
       </c>
       <c r="I36" s="11">
-        <v>48030</v>
-      </c>
-      <c r="J36" s="11">
         <v>49321</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>156629</v>
       </c>
       <c r="L36" s="11">
-        <v>156629</v>
+        <v>117143</v>
       </c>
       <c r="M36" s="11">
-        <v>117143</v>
+        <v>179178</v>
       </c>
       <c r="N36" s="11">
-        <v>179178</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123585</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1712,37 +1712,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>103427</v>
+        <v>67569</v>
       </c>
       <c r="F37" s="13">
-        <v>67569</v>
+        <v>87617</v>
       </c>
       <c r="G37" s="13">
-        <v>87617</v>
+        <v>117995</v>
       </c>
       <c r="H37" s="13">
-        <v>117995</v>
+        <v>141992</v>
       </c>
       <c r="I37" s="13">
-        <v>141992</v>
-      </c>
-      <c r="J37" s="13">
         <v>139488</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>18</v>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
+        <v>159572</v>
       </c>
       <c r="L37" s="13">
-        <v>159572</v>
+        <v>191130</v>
       </c>
       <c r="M37" s="13">
-        <v>191130</v>
+        <v>202520</v>
       </c>
       <c r="N37" s="13">
-        <v>202520</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182262</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1759,29 +1759,29 @@
       <c r="G38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>18</v>
+      <c r="H38" s="11">
+        <v>79766</v>
       </c>
       <c r="I38" s="11">
-        <v>79766</v>
-      </c>
-      <c r="J38" s="11">
         <v>138254</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11">
+        <v>120141</v>
       </c>
       <c r="L38" s="11">
-        <v>120141</v>
+        <v>203130</v>
       </c>
       <c r="M38" s="11">
-        <v>203130</v>
+        <v>252653</v>
       </c>
       <c r="N38" s="11">
-        <v>252653</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>215441</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
@@ -1790,37 +1790,37 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>4727</v>
+        <v>6549</v>
       </c>
       <c r="F39" s="13">
-        <v>6549</v>
+        <v>5652</v>
       </c>
       <c r="G39" s="13">
-        <v>5652</v>
+        <v>5139</v>
       </c>
       <c r="H39" s="13">
-        <v>5139</v>
+        <v>7150</v>
       </c>
       <c r="I39" s="13">
-        <v>7150</v>
-      </c>
-      <c r="J39" s="13">
         <v>11918</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>18</v>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="13">
+        <v>11811</v>
       </c>
       <c r="L39" s="13">
-        <v>11811</v>
+        <v>13944</v>
       </c>
       <c r="M39" s="13">
-        <v>13944</v>
+        <v>17166</v>
       </c>
       <c r="N39" s="13">
-        <v>17166</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13864</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
@@ -1837,29 +1837,29 @@
       <c r="G40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>18</v>
+      <c r="H40" s="11">
+        <v>260930</v>
       </c>
       <c r="I40" s="11">
-        <v>260930</v>
-      </c>
-      <c r="J40" s="11">
         <v>407691</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>470195</v>
       </c>
       <c r="L40" s="11">
-        <v>470195</v>
+        <v>749402</v>
       </c>
       <c r="M40" s="11">
-        <v>749402</v>
+        <v>869811</v>
       </c>
       <c r="N40" s="11">
-        <v>869811</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>558516</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>25</v>
       </c>
@@ -1876,29 +1876,29 @@
       <c r="G41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>18</v>
+      <c r="H41" s="13">
+        <v>71</v>
       </c>
       <c r="I41" s="13">
-        <v>71</v>
-      </c>
-      <c r="J41" s="13">
         <v>10003</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>38623</v>
       </c>
       <c r="L41" s="13">
-        <v>38623</v>
+        <v>41881</v>
       </c>
       <c r="M41" s="13">
-        <v>41881</v>
+        <v>66672</v>
       </c>
       <c r="N41" s="13">
-        <v>66672</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58449</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>26</v>
       </c>
@@ -1915,66 +1915,66 @@
       <c r="G42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>18</v>
+      <c r="H42" s="11">
+        <v>118398</v>
       </c>
       <c r="I42" s="11">
-        <v>118398</v>
-      </c>
-      <c r="J42" s="11">
         <v>123630</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>190150</v>
       </c>
       <c r="L42" s="11">
-        <v>190150</v>
+        <v>295543</v>
       </c>
       <c r="M42" s="11">
-        <v>295543</v>
+        <v>355778</v>
       </c>
       <c r="N42" s="11">
-        <v>355778</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>347981</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>833625</v>
+        <v>898242</v>
       </c>
       <c r="F43" s="15">
-        <v>898242</v>
+        <v>1227525</v>
       </c>
       <c r="G43" s="15">
-        <v>1227525</v>
+        <v>1106328</v>
       </c>
       <c r="H43" s="15">
-        <v>1106328</v>
+        <v>1406758</v>
       </c>
       <c r="I43" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="J43" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="K43" s="15">
-        <v>0</v>
+        <v>2320730</v>
       </c>
       <c r="L43" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="M43" s="15">
-        <v>3354789</v>
+        <v>3771995</v>
       </c>
       <c r="N43" s="15">
-        <v>3771995</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3366125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>39</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="18" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>40</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>31</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>32</v>
       </c>
@@ -2096,8 +2096,8 @@
       <c r="F48" s="15">
         <v>0</v>
       </c>
-      <c r="G48" s="15">
-        <v>0</v>
+      <c r="G48" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>34</v>
       </c>
@@ -2135,20 +2135,20 @@
       <c r="F49" s="19">
         <v>0</v>
       </c>
-      <c r="G49" s="19">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="19">
-        <v>0</v>
+      <c r="G49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="19">
+        <v>0</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="J49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="19" t="s">
-        <v>18</v>
+      <c r="K49" s="19">
+        <v>0</v>
       </c>
       <c r="L49" s="19">
         <v>0</v>
@@ -2160,44 +2160,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>833625</v>
+        <v>898242</v>
       </c>
       <c r="F50" s="15">
-        <v>898242</v>
+        <v>1227525</v>
       </c>
       <c r="G50" s="15">
-        <v>1227525</v>
+        <v>1106328</v>
       </c>
       <c r="H50" s="15">
-        <v>1106328</v>
+        <v>1406758</v>
       </c>
       <c r="I50" s="15">
-        <v>1406758</v>
+        <v>1770739</v>
       </c>
       <c r="J50" s="15">
-        <v>1770739</v>
+        <v>0</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>2320730</v>
       </c>
       <c r="L50" s="15">
-        <v>2320730</v>
+        <v>3354789</v>
       </c>
       <c r="M50" s="15">
-        <v>3354789</v>
+        <v>3771995</v>
       </c>
       <c r="N50" s="15">
-        <v>3771995</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3366125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2212,7 +2212,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2227,7 +2227,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2242,7 +2242,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2294,7 +2294,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>42</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2320,37 +2320,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>163005825</v>
+        <v>203396715</v>
       </c>
       <c r="F57" s="11">
-        <v>203396715</v>
+        <v>208669751</v>
       </c>
       <c r="G57" s="11">
-        <v>208669751</v>
+        <v>245543362</v>
       </c>
       <c r="H57" s="11">
-        <v>245543362</v>
+        <v>260111265</v>
       </c>
       <c r="I57" s="11">
-        <v>260111265</v>
+        <v>290706497</v>
       </c>
       <c r="J57" s="11">
-        <v>290706497</v>
+        <v>299241100</v>
       </c>
       <c r="K57" s="11">
-        <v>299241100</v>
+        <v>451561755</v>
       </c>
       <c r="L57" s="11">
-        <v>451561755</v>
+        <v>531447393</v>
       </c>
       <c r="M57" s="11">
-        <v>531447393</v>
+        <v>565486236</v>
       </c>
       <c r="N57" s="11">
-        <v>565486236</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>576112072</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -2359,17 +2359,17 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>130864279</v>
+        <v>150410604</v>
       </c>
       <c r="F58" s="13">
-        <v>150410604</v>
+        <v>163277889</v>
       </c>
       <c r="G58" s="13">
-        <v>163277889</v>
-      </c>
-      <c r="H58" s="13">
         <v>171903075</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>20</v>
       </c>
@@ -2397,38 +2397,38 @@
         <v>43</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>18</v>
+      <c r="E59" s="11">
+        <v>139000000</v>
       </c>
       <c r="F59" s="11">
-        <v>139000000</v>
+        <v>184500000</v>
       </c>
       <c r="G59" s="11">
-        <v>184500000</v>
+        <v>220968379</v>
       </c>
       <c r="H59" s="11">
-        <v>220968379</v>
+        <v>237772277</v>
       </c>
       <c r="I59" s="11">
-        <v>237772277</v>
+        <v>270994505</v>
       </c>
       <c r="J59" s="11">
-        <v>270994505</v>
+        <v>277109453</v>
       </c>
       <c r="K59" s="11">
-        <v>277109453</v>
+        <v>529152027</v>
       </c>
       <c r="L59" s="11">
-        <v>529152027</v>
+        <v>610119792</v>
       </c>
       <c r="M59" s="11">
-        <v>610119792</v>
+        <v>595275748</v>
       </c>
       <c r="N59" s="11">
-        <v>595275748</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577500000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>21</v>
       </c>
@@ -2437,37 +2437,37 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>17999826</v>
+        <v>17999201</v>
       </c>
       <c r="F60" s="13">
-        <v>17999201</v>
+        <v>18002260</v>
       </c>
       <c r="G60" s="13">
-        <v>18002260</v>
+        <v>28000712</v>
       </c>
       <c r="H60" s="13">
-        <v>28000712</v>
+        <v>28000789</v>
       </c>
       <c r="I60" s="13">
-        <v>28000789</v>
+        <v>27998394</v>
       </c>
       <c r="J60" s="13">
-        <v>27998394</v>
+        <v>28000356</v>
       </c>
       <c r="K60" s="13">
-        <v>28000356</v>
+        <v>41000000</v>
       </c>
       <c r="L60" s="13">
-        <v>41000000</v>
+        <v>41006222</v>
       </c>
       <c r="M60" s="13">
-        <v>41006222</v>
+        <v>41004252</v>
       </c>
       <c r="N60" s="13">
-        <v>41004252</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40994602</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>22</v>
       </c>
@@ -2484,29 +2484,29 @@
       <c r="G61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>18</v>
+      <c r="H61" s="11">
+        <v>168282700</v>
       </c>
       <c r="I61" s="11">
-        <v>168282700</v>
+        <v>184338667</v>
       </c>
       <c r="J61" s="11">
-        <v>184338667</v>
+        <v>185048465</v>
       </c>
       <c r="K61" s="11">
-        <v>185048465</v>
+        <v>329153425</v>
       </c>
       <c r="L61" s="11">
-        <v>329153425</v>
+        <v>393662791</v>
       </c>
       <c r="M61" s="11">
-        <v>393662791</v>
+        <v>444811620</v>
       </c>
       <c r="N61" s="11">
-        <v>444811620</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>470395197</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>23</v>
       </c>
@@ -2515,37 +2515,37 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>225095238</v>
+        <v>344684211</v>
       </c>
       <c r="F62" s="13">
-        <v>344684211</v>
+        <v>353250000</v>
       </c>
       <c r="G62" s="13">
-        <v>353250000</v>
+        <v>395307692</v>
       </c>
       <c r="H62" s="13">
-        <v>395307692</v>
+        <v>476666667</v>
       </c>
       <c r="I62" s="13">
-        <v>476666667</v>
+        <v>458384615</v>
       </c>
       <c r="J62" s="13">
-        <v>458384615</v>
+        <v>543785714</v>
       </c>
       <c r="K62" s="13">
-        <v>543785714</v>
+        <v>738187500</v>
       </c>
       <c r="L62" s="13">
-        <v>738187500</v>
+        <v>820235294</v>
       </c>
       <c r="M62" s="13">
-        <v>820235294</v>
+        <v>858300000</v>
       </c>
       <c r="N62" s="13">
-        <v>858300000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>866500000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>24</v>
       </c>
@@ -2562,29 +2562,29 @@
       <c r="G63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>18</v>
+      <c r="H63" s="11">
+        <v>167692802</v>
       </c>
       <c r="I63" s="11">
-        <v>167692802</v>
+        <v>202027255</v>
       </c>
       <c r="J63" s="11">
-        <v>202027255</v>
+        <v>202131397</v>
       </c>
       <c r="K63" s="11">
-        <v>202131397</v>
+        <v>385721903</v>
       </c>
       <c r="L63" s="11">
-        <v>385721903</v>
+        <v>463165637</v>
       </c>
       <c r="M63" s="11">
-        <v>463165637</v>
+        <v>521469424</v>
       </c>
       <c r="N63" s="11">
-        <v>521469424</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>546493151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>25</v>
       </c>
@@ -2601,29 +2601,29 @@
       <c r="G64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>18</v>
+      <c r="H64" s="13">
+        <v>71000000</v>
       </c>
       <c r="I64" s="13">
-        <v>71000000</v>
+        <v>192365385</v>
       </c>
       <c r="J64" s="13">
-        <v>192365385</v>
+        <v>196649123</v>
       </c>
       <c r="K64" s="13">
-        <v>196649123</v>
+        <v>406557895</v>
       </c>
       <c r="L64" s="13">
-        <v>406557895</v>
+        <v>406611650</v>
       </c>
       <c r="M64" s="13">
-        <v>406611650</v>
+        <v>411555556</v>
       </c>
       <c r="N64" s="13">
-        <v>411555556</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>411612676</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>26</v>
       </c>
@@ -2640,29 +2640,29 @@
       <c r="G65" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>18</v>
+      <c r="H65" s="11">
+        <v>348229412</v>
       </c>
       <c r="I65" s="11">
-        <v>348229412</v>
+        <v>409370861</v>
       </c>
       <c r="J65" s="11">
-        <v>409370861</v>
+        <v>399661871</v>
       </c>
       <c r="K65" s="11">
-        <v>399661871</v>
+        <v>581498471</v>
       </c>
       <c r="L65" s="11">
-        <v>581498471</v>
+        <v>655305987</v>
       </c>
       <c r="M65" s="11">
-        <v>655305987</v>
+        <v>680263862</v>
       </c>
       <c r="N65" s="11">
-        <v>680263862</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>690438492</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2677,7 +2677,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2692,7 +2692,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2707,7 +2707,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>44</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>45</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,37 +2785,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-350290</v>
+        <v>-426630</v>
       </c>
       <c r="F72" s="11">
-        <v>-426630</v>
+        <v>-452719</v>
       </c>
       <c r="G72" s="11">
-        <v>-452719</v>
+        <v>-438990</v>
       </c>
       <c r="H72" s="11">
-        <v>-438990</v>
+        <v>-566223</v>
       </c>
       <c r="I72" s="11">
-        <v>-566223</v>
+        <v>-704266</v>
       </c>
       <c r="J72" s="11">
-        <v>-704266</v>
+        <v>-717222</v>
       </c>
       <c r="K72" s="11">
-        <v>-717222</v>
+        <v>-793962</v>
       </c>
       <c r="L72" s="11">
-        <v>-793962</v>
+        <v>-1098921</v>
       </c>
       <c r="M72" s="11">
-        <v>-1098921</v>
+        <v>-1225033</v>
       </c>
       <c r="N72" s="11">
-        <v>-1225033</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1230815</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>19</v>
       </c>
@@ -2824,17 +2824,17 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>-219674</v>
+        <v>-220948</v>
       </c>
       <c r="F73" s="13">
-        <v>-220948</v>
+        <v>-349716</v>
       </c>
       <c r="G73" s="13">
-        <v>-349716</v>
-      </c>
-      <c r="H73" s="13">
         <v>-270417</v>
       </c>
+      <c r="H73" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I73" s="13" t="s">
         <v>18</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>20</v>
       </c>
@@ -2863,37 +2863,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>-504</v>
+        <v>-546</v>
       </c>
       <c r="F74" s="11">
-        <v>-546</v>
+        <v>-46996</v>
       </c>
       <c r="G74" s="11">
-        <v>-46996</v>
+        <v>-45886</v>
       </c>
       <c r="H74" s="11">
-        <v>-45886</v>
+        <v>-42208</v>
       </c>
       <c r="I74" s="11">
-        <v>-42208</v>
+        <v>-46104</v>
       </c>
       <c r="J74" s="11">
-        <v>-46104</v>
+        <v>-42761</v>
       </c>
       <c r="K74" s="11">
-        <v>-42761</v>
+        <v>-100063</v>
       </c>
       <c r="L74" s="11">
-        <v>-100063</v>
+        <v>-53723</v>
       </c>
       <c r="M74" s="11">
-        <v>-53723</v>
+        <v>-106479</v>
       </c>
       <c r="N74" s="11">
-        <v>-106479</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-106148</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>21</v>
       </c>
@@ -2902,37 +2902,37 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-79018</v>
+        <v>-65364</v>
       </c>
       <c r="F75" s="13">
-        <v>-65364</v>
+        <v>-72670</v>
       </c>
       <c r="G75" s="13">
-        <v>-72670</v>
+        <v>-82010</v>
       </c>
       <c r="H75" s="13">
-        <v>-82010</v>
+        <v>-102882</v>
       </c>
       <c r="I75" s="13">
-        <v>-102882</v>
+        <v>-114177</v>
       </c>
       <c r="J75" s="13">
-        <v>-114177</v>
+        <v>-140717</v>
       </c>
       <c r="K75" s="13">
-        <v>-140717</v>
+        <v>-148909</v>
       </c>
       <c r="L75" s="13">
-        <v>-148909</v>
+        <v>-173469</v>
       </c>
       <c r="M75" s="13">
-        <v>-173469</v>
+        <v>-173260</v>
       </c>
       <c r="N75" s="13">
-        <v>-173260</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-152082</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>22</v>
       </c>
@@ -2949,29 +2949,29 @@
       <c r="G76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H76" s="11" t="s">
-        <v>18</v>
+      <c r="H76" s="11">
+        <v>-110180</v>
       </c>
       <c r="I76" s="11">
-        <v>-110180</v>
+        <v>-118507</v>
       </c>
       <c r="J76" s="11">
-        <v>-118507</v>
+        <v>-100246</v>
       </c>
       <c r="K76" s="11">
-        <v>-100246</v>
+        <v>-87393</v>
       </c>
       <c r="L76" s="11">
-        <v>-87393</v>
+        <v>-145187</v>
       </c>
       <c r="M76" s="11">
-        <v>-145187</v>
+        <v>-160829</v>
       </c>
       <c r="N76" s="11">
-        <v>-160829</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-145760</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>23</v>
       </c>
@@ -2980,37 +2980,37 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-3964</v>
+        <v>-3692</v>
       </c>
       <c r="F77" s="13">
-        <v>-3692</v>
+        <v>-3866</v>
       </c>
       <c r="G77" s="13">
-        <v>-3866</v>
+        <v>-3088</v>
       </c>
       <c r="H77" s="13">
-        <v>-3088</v>
+        <v>-4145</v>
       </c>
       <c r="I77" s="13">
-        <v>-4145</v>
+        <v>-7033</v>
       </c>
       <c r="J77" s="13">
-        <v>-7033</v>
+        <v>-8501</v>
       </c>
       <c r="K77" s="13">
-        <v>-8501</v>
+        <v>-7395</v>
       </c>
       <c r="L77" s="13">
-        <v>-7395</v>
+        <v>-9273</v>
       </c>
       <c r="M77" s="13">
-        <v>-9273</v>
+        <v>-12159</v>
       </c>
       <c r="N77" s="13">
-        <v>-12159</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-16595</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>24</v>
       </c>
@@ -3027,29 +3027,29 @@
       <c r="G78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>18</v>
+      <c r="H78" s="11">
+        <v>-378514</v>
       </c>
       <c r="I78" s="11">
-        <v>-378514</v>
+        <v>-321882</v>
       </c>
       <c r="J78" s="11">
-        <v>-321882</v>
+        <v>-244550</v>
       </c>
       <c r="K78" s="11">
-        <v>-244550</v>
+        <v>-333223</v>
       </c>
       <c r="L78" s="11">
-        <v>-333223</v>
+        <v>-459339</v>
       </c>
       <c r="M78" s="11">
-        <v>-459339</v>
+        <v>-543679</v>
       </c>
       <c r="N78" s="11">
-        <v>-543679</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-295463</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>25</v>
       </c>
@@ -3066,29 +3066,29 @@
       <c r="G79" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="13" t="s">
-        <v>18</v>
+      <c r="H79" s="13">
+        <v>-1144</v>
       </c>
       <c r="I79" s="13">
-        <v>-1144</v>
+        <v>-5543</v>
       </c>
       <c r="J79" s="13">
-        <v>-5543</v>
+        <v>-12804</v>
       </c>
       <c r="K79" s="13">
-        <v>-12804</v>
+        <v>-26041</v>
       </c>
       <c r="L79" s="13">
-        <v>-26041</v>
+        <v>-32020</v>
       </c>
       <c r="M79" s="13">
-        <v>-32020</v>
+        <v>-58574</v>
       </c>
       <c r="N79" s="13">
-        <v>-58574</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-50483</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
@@ -3105,66 +3105,66 @@
       <c r="G80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>18</v>
+      <c r="H80" s="11">
+        <v>-129459</v>
       </c>
       <c r="I80" s="11">
-        <v>-129459</v>
+        <v>-83125</v>
       </c>
       <c r="J80" s="11">
-        <v>-83125</v>
+        <v>-91325</v>
       </c>
       <c r="K80" s="11">
-        <v>-91325</v>
+        <v>-119978</v>
       </c>
       <c r="L80" s="11">
-        <v>-119978</v>
+        <v>-164918</v>
       </c>
       <c r="M80" s="11">
-        <v>-164918</v>
+        <v>-214792</v>
       </c>
       <c r="N80" s="11">
-        <v>-214792</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-290447</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>-653450</v>
+        <v>-717180</v>
       </c>
       <c r="F81" s="15">
-        <v>-717180</v>
+        <v>-925967</v>
       </c>
       <c r="G81" s="15">
-        <v>-925967</v>
+        <v>-840391</v>
       </c>
       <c r="H81" s="15">
-        <v>-840391</v>
+        <v>-1334755</v>
       </c>
       <c r="I81" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="J81" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="K81" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="L81" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="M81" s="15">
-        <v>-2136850</v>
+        <v>-2494805</v>
       </c>
       <c r="N81" s="15">
-        <v>-2494805</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2287793</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>47</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>48</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>49</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>50</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>32</v>
       </c>
@@ -3286,8 +3286,8 @@
       <c r="F86" s="15">
         <v>0</v>
       </c>
-      <c r="G86" s="15">
-        <v>0</v>
+      <c r="G86" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>18</v>
@@ -3311,7 +3311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
         <v>34</v>
       </c>
@@ -3325,17 +3325,17 @@
       <c r="F87" s="19">
         <v>0</v>
       </c>
-      <c r="G87" s="19">
-        <v>0</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" s="19">
-        <v>0</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>18</v>
+      <c r="G87" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="19">
+        <v>0</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="19">
+        <v>0</v>
       </c>
       <c r="K87" s="19">
         <v>0</v>
@@ -3350,44 +3350,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15">
-        <v>-653450</v>
+        <v>-717180</v>
       </c>
       <c r="F88" s="15">
-        <v>-717180</v>
+        <v>-925967</v>
       </c>
       <c r="G88" s="15">
-        <v>-925967</v>
+        <v>-840391</v>
       </c>
       <c r="H88" s="15">
-        <v>-840391</v>
+        <v>-1334755</v>
       </c>
       <c r="I88" s="15">
-        <v>-1334755</v>
+        <v>-1400637</v>
       </c>
       <c r="J88" s="15">
-        <v>-1400637</v>
+        <v>-1358126</v>
       </c>
       <c r="K88" s="15">
-        <v>-1358126</v>
+        <v>-1616964</v>
       </c>
       <c r="L88" s="15">
-        <v>-1616964</v>
+        <v>-2136850</v>
       </c>
       <c r="M88" s="15">
-        <v>-2136850</v>
+        <v>-2494805</v>
       </c>
       <c r="N88" s="15">
-        <v>-2494805</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2287793</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3417,7 +3417,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3432,7 +3432,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>51</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3484,7 +3484,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>52</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -3510,37 +3510,37 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>97487</v>
+        <v>130677</v>
       </c>
       <c r="F95" s="11">
-        <v>130677</v>
+        <v>133643</v>
       </c>
       <c r="G95" s="11">
-        <v>133643</v>
+        <v>158417</v>
       </c>
       <c r="H95" s="11">
-        <v>158417</v>
+        <v>184198</v>
       </c>
       <c r="I95" s="11">
-        <v>184198</v>
+        <v>186168</v>
       </c>
       <c r="J95" s="11">
-        <v>186168</v>
+        <v>207433</v>
       </c>
       <c r="K95" s="11">
-        <v>207433</v>
+        <v>379647</v>
       </c>
       <c r="L95" s="11">
-        <v>379647</v>
+        <v>643695</v>
       </c>
       <c r="M95" s="11">
-        <v>643695</v>
+        <v>603184</v>
       </c>
       <c r="N95" s="11">
-        <v>603184</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>635212</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>19</v>
       </c>
@@ -3549,17 +3549,17 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>58020</v>
+        <v>45730</v>
       </c>
       <c r="F96" s="13">
-        <v>45730</v>
+        <v>139138</v>
       </c>
       <c r="G96" s="13">
-        <v>139138</v>
-      </c>
-      <c r="H96" s="13">
         <v>59465</v>
       </c>
+      <c r="H96" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I96" s="13" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
@@ -3588,37 +3588,37 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>-504</v>
+        <v>-407</v>
       </c>
       <c r="F97" s="11">
-        <v>-407</v>
+        <v>12044</v>
       </c>
       <c r="G97" s="11">
-        <v>12044</v>
+        <v>10019</v>
       </c>
       <c r="H97" s="11">
-        <v>10019</v>
+        <v>5822</v>
       </c>
       <c r="I97" s="11">
-        <v>5822</v>
+        <v>3217</v>
       </c>
       <c r="J97" s="11">
-        <v>3217</v>
+        <v>12938</v>
       </c>
       <c r="K97" s="11">
-        <v>12938</v>
+        <v>56566</v>
       </c>
       <c r="L97" s="11">
-        <v>56566</v>
+        <v>63420</v>
       </c>
       <c r="M97" s="11">
-        <v>63420</v>
+        <v>72699</v>
       </c>
       <c r="N97" s="11">
-        <v>72699</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17437</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>21</v>
       </c>
@@ -3627,37 +3627,37 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>24409</v>
+        <v>2205</v>
       </c>
       <c r="F98" s="13">
-        <v>2205</v>
+        <v>14947</v>
       </c>
       <c r="G98" s="13">
-        <v>14947</v>
+        <v>35985</v>
       </c>
       <c r="H98" s="13">
-        <v>35985</v>
+        <v>39110</v>
       </c>
       <c r="I98" s="13">
-        <v>39110</v>
+        <v>25311</v>
       </c>
       <c r="J98" s="13">
-        <v>25311</v>
+        <v>16449</v>
       </c>
       <c r="K98" s="13">
-        <v>16449</v>
+        <v>10663</v>
       </c>
       <c r="L98" s="13">
-        <v>10663</v>
+        <v>17661</v>
       </c>
       <c r="M98" s="13">
-        <v>17661</v>
+        <v>29260</v>
       </c>
       <c r="N98" s="13">
-        <v>29260</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>22</v>
       </c>
@@ -3674,29 +3674,29 @@
       <c r="G99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>18</v>
+      <c r="H99" s="11">
+        <v>28582</v>
       </c>
       <c r="I99" s="11">
-        <v>28582</v>
+        <v>19747</v>
       </c>
       <c r="J99" s="11">
-        <v>19747</v>
+        <v>14299</v>
       </c>
       <c r="K99" s="11">
-        <v>14299</v>
+        <v>32748</v>
       </c>
       <c r="L99" s="11">
-        <v>32748</v>
+        <v>57943</v>
       </c>
       <c r="M99" s="11">
-        <v>57943</v>
+        <v>91824</v>
       </c>
       <c r="N99" s="11">
-        <v>91824</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69681</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>23</v>
       </c>
@@ -3705,37 +3705,37 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>763</v>
+        <v>2857</v>
       </c>
       <c r="F100" s="13">
-        <v>2857</v>
+        <v>1786</v>
       </c>
       <c r="G100" s="13">
-        <v>1786</v>
+        <v>2051</v>
       </c>
       <c r="H100" s="13">
-        <v>2051</v>
+        <v>3005</v>
       </c>
       <c r="I100" s="13">
-        <v>3005</v>
+        <v>4885</v>
       </c>
       <c r="J100" s="13">
-        <v>4885</v>
+        <v>-888</v>
       </c>
       <c r="K100" s="13">
-        <v>-888</v>
+        <v>4416</v>
       </c>
       <c r="L100" s="13">
-        <v>4416</v>
+        <v>4671</v>
       </c>
       <c r="M100" s="13">
-        <v>4671</v>
+        <v>5007</v>
       </c>
       <c r="N100" s="13">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2731</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>24</v>
       </c>
@@ -3752,29 +3752,29 @@
       <c r="G101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>18</v>
+      <c r="H101" s="11">
+        <v>96348</v>
       </c>
       <c r="I101" s="11">
-        <v>96348</v>
+        <v>85809</v>
       </c>
       <c r="J101" s="11">
-        <v>85809</v>
+        <v>47732</v>
       </c>
       <c r="K101" s="11">
-        <v>47732</v>
+        <v>136972</v>
       </c>
       <c r="L101" s="11">
-        <v>136972</v>
+        <v>290063</v>
       </c>
       <c r="M101" s="11">
-        <v>290063</v>
+        <v>326132</v>
       </c>
       <c r="N101" s="11">
-        <v>326132</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263053</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>25</v>
       </c>
@@ -3791,29 +3791,29 @@
       <c r="G102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H102" s="13" t="s">
-        <v>18</v>
+      <c r="H102" s="13">
+        <v>313</v>
       </c>
       <c r="I102" s="13">
-        <v>313</v>
+        <v>4460</v>
       </c>
       <c r="J102" s="13">
-        <v>4460</v>
+        <v>-1595</v>
       </c>
       <c r="K102" s="13">
-        <v>-1595</v>
+        <v>12582</v>
       </c>
       <c r="L102" s="13">
-        <v>12582</v>
+        <v>9861</v>
       </c>
       <c r="M102" s="13">
-        <v>9861</v>
+        <v>8098</v>
       </c>
       <c r="N102" s="13">
-        <v>8098</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>26</v>
       </c>
@@ -3830,66 +3830,66 @@
       <c r="G103" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>18</v>
+      <c r="H103" s="11">
+        <v>44507</v>
       </c>
       <c r="I103" s="11">
-        <v>44507</v>
+        <v>40505</v>
       </c>
       <c r="J103" s="11">
-        <v>40505</v>
+        <v>19781</v>
       </c>
       <c r="K103" s="11">
-        <v>19781</v>
+        <v>70172</v>
       </c>
       <c r="L103" s="11">
-        <v>70172</v>
+        <v>130625</v>
       </c>
       <c r="M103" s="11">
-        <v>130625</v>
+        <v>140986</v>
       </c>
       <c r="N103" s="11">
-        <v>140986</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57534</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>180175</v>
+        <v>181062</v>
       </c>
       <c r="F104" s="15">
-        <v>181062</v>
+        <v>301558</v>
       </c>
       <c r="G104" s="15">
-        <v>301558</v>
+        <v>265937</v>
       </c>
       <c r="H104" s="15">
-        <v>265937</v>
+        <v>401885</v>
       </c>
       <c r="I104" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="J104" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="K104" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="L104" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="M104" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
       <c r="N104" s="15">
-        <v>1277190</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1078332</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>54</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>55</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>56</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>57</v>
       </c>
@@ -3997,41 +3997,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>180175</v>
+        <v>181062</v>
       </c>
       <c r="F109" s="15">
-        <v>181062</v>
+        <v>301558</v>
       </c>
       <c r="G109" s="15">
-        <v>301558</v>
+        <v>265937</v>
       </c>
       <c r="H109" s="15">
-        <v>265937</v>
+        <v>401885</v>
       </c>
       <c r="I109" s="15">
-        <v>401885</v>
+        <v>370102</v>
       </c>
       <c r="J109" s="15">
-        <v>370102</v>
+        <v>316149</v>
       </c>
       <c r="K109" s="15">
-        <v>316149</v>
+        <v>703766</v>
       </c>
       <c r="L109" s="15">
-        <v>703766</v>
+        <v>1217939</v>
       </c>
       <c r="M109" s="15">
-        <v>1217939</v>
+        <v>1277190</v>
       </c>
       <c r="N109" s="15">
-        <v>1277190</v>
+        <v>1078332</v>
       </c>
     </row>
   </sheetData>
